--- a/Tables/MeansTables.xlsx
+++ b/Tables/MeansTables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C993FFF5-6563-D448-B930-A43873403FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E12545-7E0F-A046-B1F5-46526CC277AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38840" yWindow="1520" windowWidth="27640" windowHeight="16940" xr2:uid="{265FA2DD-E230-E644-AC9A-50A4904775DF}"/>
+    <workbookView xWindow="38580" yWindow="1520" windowWidth="27640" windowHeight="16040" activeTab="1" xr2:uid="{265FA2DD-E230-E644-AC9A-50A4904775DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="133">
   <si>
     <t>Stream</t>
   </si>
@@ -218,9 +219,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>Kruskal</t>
   </si>
   <si>
@@ -239,9 +237,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>x^2/F</t>
-  </si>
-  <si>
     <t>Anova</t>
   </si>
   <si>
@@ -251,9 +246,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>transformation</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -270,13 +262,187 @@
   </si>
   <si>
     <t xml:space="preserve">bc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab </t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>kruskal</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>bcd</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>p.spring</t>
+  </si>
+  <si>
+    <t>x^2/F.spring</t>
+  </si>
+  <si>
+    <t>transformation.spring</t>
+  </si>
+  <si>
+    <t>Levene.Spring</t>
+  </si>
+  <si>
+    <t>abd</t>
+  </si>
+  <si>
+    <t>acd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd </t>
+  </si>
+  <si>
+    <t>x, sqrt</t>
+  </si>
+  <si>
+    <t>p.fall</t>
+  </si>
+  <si>
+    <t>Test.fall</t>
+  </si>
+  <si>
+    <t>x^2/F.fall</t>
+  </si>
+  <si>
+    <t>transformation.fall</t>
+  </si>
+  <si>
+    <t>Levene.fall</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>KRUSKAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac </t>
+  </si>
+  <si>
+    <t>x, log</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d </t>
+  </si>
+  <si>
+    <t xml:space="preserve">be </t>
+  </si>
+  <si>
+    <t>Hshannon</t>
+  </si>
+  <si>
+    <t>rich.C</t>
+  </si>
+  <si>
+    <t>rich.less.E</t>
+  </si>
+  <si>
+    <t>pP.less.LAA</t>
+  </si>
+  <si>
+    <t>pSH</t>
+  </si>
+  <si>
+    <t>pCG</t>
+  </si>
+  <si>
+    <t>pCF</t>
+  </si>
+  <si>
+    <t>pBurrow</t>
+  </si>
+  <si>
+    <t>rich.INT</t>
+  </si>
+  <si>
+    <t>rich.TOL</t>
+  </si>
+  <si>
+    <t>pSC</t>
+  </si>
+  <si>
+    <t>pTOL</t>
+  </si>
+  <si>
+    <t>rich.CF</t>
+  </si>
+  <si>
+    <t>rich.CG</t>
+  </si>
+  <si>
+    <t>rich.P</t>
+  </si>
+  <si>
+    <t>rich.PR</t>
+  </si>
+  <si>
+    <t>rich.PT</t>
+  </si>
+  <si>
+    <t>rich.SC.less.E</t>
+  </si>
+  <si>
+    <t>rich.Swimm</t>
+  </si>
+  <si>
+    <t>Taxa Metric</t>
+  </si>
+  <si>
+    <t>X^2/F.spring</t>
+  </si>
+  <si>
+    <t>X^2/F.fall</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,8 +450,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +479,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -307,13 +500,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,40 +1006,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF11EB8-A1A6-BE48-B5CB-9E95BDEE6756}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:AG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -669,16 +1131,97 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -686,16 +1229,97 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -703,16 +1327,97 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -720,16 +1425,97 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -737,16 +1523,97 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -754,69 +1621,438 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" t="s">
+        <v>87</v>
+      </c>
+      <c r="W14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -830,16 +2066,91 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="V18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" t="s">
+        <v>48</v>
+      </c>
+      <c r="X18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -847,22 +2158,97 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" t="s">
+        <v>68</v>
+      </c>
+      <c r="X19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -870,22 +2256,97 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" t="s">
+        <v>61</v>
+      </c>
+      <c r="W20" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -893,22 +2354,97 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" t="s">
+        <v>72</v>
+      </c>
+      <c r="V21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W21" t="s">
+        <v>72</v>
+      </c>
+      <c r="X21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="AA21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -916,22 +2452,97 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U22" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" t="s">
+        <v>76</v>
+      </c>
+      <c r="W22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -939,22 +2550,97 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s">
         <v>65</v>
       </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="Q23" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23" t="s">
+        <v>68</v>
+      </c>
+      <c r="V23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="W23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -962,273 +2648,1209 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" t="s">
+        <v>70</v>
+      </c>
+      <c r="U24" t="s">
+        <v>72</v>
+      </c>
+      <c r="V24" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" t="s">
+        <v>68</v>
+      </c>
+      <c r="X24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>62</v>
+      </c>
+      <c r="R25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S25" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" t="s">
+        <v>72</v>
+      </c>
+      <c r="V25" t="s">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" t="s">
+        <v>87</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" t="s">
+        <v>72</v>
+      </c>
+      <c r="V26" t="s">
+        <v>94</v>
+      </c>
+      <c r="W26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>68</v>
+      </c>
+      <c r="R27" t="s">
+        <v>87</v>
+      </c>
+      <c r="S27" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" t="s">
+        <v>62</v>
+      </c>
+      <c r="U27" t="s">
+        <v>72</v>
+      </c>
+      <c r="V27" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>62</v>
+      </c>
+      <c r="R28" t="s">
+        <v>87</v>
+      </c>
+      <c r="S28" t="s">
+        <v>87</v>
+      </c>
+      <c r="T28" t="s">
+        <v>72</v>
+      </c>
+      <c r="U28" t="s">
+        <v>75</v>
+      </c>
+      <c r="V28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" t="s">
+        <v>87</v>
+      </c>
+      <c r="S29" t="s">
+        <v>87</v>
+      </c>
+      <c r="T29" t="s">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s">
+        <v>75</v>
+      </c>
+      <c r="V29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>62</v>
+      </c>
+      <c r="R30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S30" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" t="s">
+        <v>72</v>
+      </c>
+      <c r="V30" t="s">
+        <v>67</v>
+      </c>
+      <c r="W30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33">
+        <v>1.75E-6</v>
+      </c>
+      <c r="D33">
+        <v>10.49</v>
+      </c>
+      <c r="E33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33">
-        <v>1.4249999999999999E-6</v>
-      </c>
-      <c r="D33">
-        <v>35.119</v>
-      </c>
-      <c r="E33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33">
+        <v>3.8999999999999999E-6</v>
+      </c>
+      <c r="I33">
+        <v>10.31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="D34">
+        <v>2.25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I34">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>4.45E-3</v>
+      </c>
+      <c r="D35">
+        <v>4.0659999999999998</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I35">
+        <v>4.8369999999999997</v>
+      </c>
+      <c r="J35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="D36">
+        <v>4.609</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="I36">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="J36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="D37">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37">
+        <v>1.2100000000000001E-7</v>
+      </c>
+      <c r="I37">
+        <v>14.31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38">
+        <v>0.156</v>
+      </c>
+      <c r="I38">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="J38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>0.42</v>
+      </c>
+      <c r="D39">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39">
+        <v>0.155</v>
+      </c>
+      <c r="I39">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>6.1600000000000007E-5</v>
+      </c>
+      <c r="D40">
+        <v>7.2949999999999999</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <v>6.3399999999999996E-5</v>
+      </c>
+      <c r="D41">
+        <v>7.27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <v>2.57E-6</v>
+      </c>
+      <c r="D42">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="I42">
+        <v>6.9219999999999997</v>
+      </c>
+      <c r="J42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>5.0040000000000002E-5</v>
+      </c>
+      <c r="D43">
+        <v>7.46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43">
+        <v>9.09E-8</v>
+      </c>
+      <c r="I43">
+        <v>14.67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44">
+        <v>1.46E-2</v>
+      </c>
+      <c r="D44">
+        <v>3.2610000000000001</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44">
+        <v>1.93E-4</v>
+      </c>
+      <c r="I44">
+        <v>6.6379999999999999</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <v>2.29E-8</v>
+      </c>
+      <c r="D45">
+        <v>15.2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46">
+        <v>5.4599999999999999E-5</v>
+      </c>
+      <c r="D46">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D47">
+        <v>11.05</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47">
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="I47">
+        <v>7.2530000000000001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48">
+        <v>4.1399999999999997E-7</v>
+      </c>
+      <c r="D48">
+        <v>11.95</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="I48">
+        <v>3.6680000000000001</v>
+      </c>
+      <c r="J48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <v>9.0099999999999999E-10</v>
+      </c>
+      <c r="D49">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49">
+        <v>3.49E-6</v>
+      </c>
+      <c r="I49">
+        <v>10.43</v>
+      </c>
+      <c r="J49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <v>3.51E-11</v>
+      </c>
+      <c r="D50">
+        <v>24.39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>2.92E-2</v>
+      </c>
+      <c r="D51">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51">
+        <v>1.3899999999999999E-13</v>
+      </c>
+      <c r="I51">
+        <v>40.46</v>
+      </c>
+      <c r="J51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34">
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
         <v>8.7900000000000001E-11</v>
       </c>
-      <c r="D34">
+      <c r="D52">
         <v>22.91</v>
       </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35">
-        <v>2.8569999999999999E-6</v>
-      </c>
-      <c r="D35">
-        <v>33.603000000000002</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36">
-        <v>5.4399999999999996E-6</v>
-      </c>
-      <c r="D36">
-        <v>32.192</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50">
-        <v>0.42</v>
-      </c>
-      <c r="D50">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51">
-        <v>8.3500000000000005E-7</v>
-      </c>
-      <c r="D51">
-        <v>11.23</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D52">
-        <v>11.05</v>
-      </c>
       <c r="E52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52">
+        <v>1.1899999999999999E-7</v>
+      </c>
+      <c r="I52">
+        <v>14.33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>1.5099999999999999E-7</v>
@@ -1237,140 +3859,1384 @@
         <v>13.03</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53">
+        <v>2.117E-4</v>
+      </c>
+      <c r="I53">
+        <v>24.056999999999999</v>
+      </c>
+      <c r="J53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>8.3500000000000005E-7</v>
+      </c>
+      <c r="D54">
+        <v>11.23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54">
+        <v>3.48E-3</v>
+      </c>
+      <c r="I54">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="J54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>1.4249999999999999E-6</v>
+      </c>
+      <c r="D55">
+        <v>35.119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="I55">
+        <v>13.41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="D56">
+        <v>12.366</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" t="s">
+        <v>104</v>
+      </c>
+      <c r="J56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>6.1580000000000003E-3</v>
+      </c>
+      <c r="D57">
+        <v>16.253</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58">
+        <v>5.1849999999999999E-7</v>
+      </c>
+      <c r="D58">
+        <v>37.311999999999998</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>2.0270000000000001E-7</v>
+      </c>
+      <c r="D59">
+        <v>39.341999999999999</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59">
+        <v>2.48E-13</v>
+      </c>
+      <c r="I59">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="J59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>4.297E-8</v>
+      </c>
+      <c r="D60">
+        <v>42.677</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61">
+        <v>14.013999999999999</v>
+      </c>
+      <c r="D61">
+        <v>1.5520000000000001E-2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="D62">
+        <v>8.7175999999999991</v>
+      </c>
+      <c r="E62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63">
+        <v>7.4779999999999999E-5</v>
+      </c>
+      <c r="D63">
+        <v>26.396000000000001</v>
+      </c>
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>104</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64">
+        <v>6.5149999999999998E-8</v>
+      </c>
+      <c r="D64">
+        <v>41.783999999999999</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" t="s">
+        <v>104</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>2.868E-7</v>
+      </c>
+      <c r="D65">
+        <v>38.593000000000004</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66">
+        <v>7.2060000000000001E-6</v>
+      </c>
+      <c r="D66">
+        <v>31.5777</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" t="s">
+        <v>104</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67">
+        <v>9.1249999999999994E-3</v>
+      </c>
+      <c r="D67">
+        <v>15.308</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67">
+        <v>7.4799999999999995E-8</v>
+      </c>
+      <c r="I67">
+        <v>14.93</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>1.934E-6</v>
+      </c>
+      <c r="D68">
+        <v>34.453000000000003</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>6.6969999999999996E-6</v>
+      </c>
+      <c r="D69">
+        <v>31.736999999999998</v>
+      </c>
+      <c r="E69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>104</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>3.413E-4</v>
+      </c>
+      <c r="D70">
+        <v>22.975000000000001</v>
+      </c>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70">
+        <v>6.3499999999999998E-10</v>
+      </c>
+      <c r="I70">
+        <v>22.05</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71">
+        <v>2.401E-6</v>
+      </c>
+      <c r="D71">
+        <v>33.981999999999999</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71">
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="I71">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>2.8569999999999999E-6</v>
+      </c>
+      <c r="D72">
+        <v>33.603000000000002</v>
+      </c>
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73">
+        <v>2.4660000000000002E-6</v>
+      </c>
+      <c r="D73">
+        <v>33.923000000000002</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74">
+        <v>5.4399999999999996E-6</v>
+      </c>
+      <c r="D74">
+        <v>32.192</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74">
+        <v>2.137E-5</v>
+      </c>
+      <c r="I74">
+        <v>29.18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75">
+        <v>3.4900000000000001E-8</v>
+      </c>
+      <c r="D75">
+        <v>43.12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" t="s">
+        <v>104</v>
+      </c>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <v>7.1559999999999998E-7</v>
+      </c>
+      <c r="D76">
+        <v>36.613999999999997</v>
+      </c>
+      <c r="E76" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>3.4629999999999999E-3</v>
+      </c>
+      <c r="D77">
+        <v>17.619</v>
+      </c>
+      <c r="E77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
+      <c r="J77" t="s">
+        <v>102</v>
+      </c>
+      <c r="K77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>1.952E-7</v>
+      </c>
+      <c r="D78">
+        <v>39.453000000000003</v>
+      </c>
+      <c r="E78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+      <c r="J78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>48</v>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
+      <c r="J79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="X84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z84" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC84" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD84" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF84" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG84" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:F79">
+    <sortCondition ref="B33:B79"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2572E8-AAFD-684B-9430-9CFC562C06AC}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.4249999999999999E-6</v>
+      </c>
+      <c r="D2" s="6">
+        <v>35.119</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="17">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.156</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.7190000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.155</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="17">
+        <v>6.1600000000000007E-5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7.2949999999999999</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="17">
+        <v>26.355</v>
+      </c>
+      <c r="G5" s="7">
+        <v>7.6160000000000003E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="17">
+        <v>9.1249999999999994E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15.308</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="17">
+        <v>7.4799999999999995E-8</v>
+      </c>
+      <c r="G6" s="7">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="17">
+        <v>6.3399999999999996E-5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.27</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="17">
+        <v>23.420999999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.8039999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.57E-6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6.9219999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1.934E-6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>34.453000000000003</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1.224E-5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>30.411000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6.6969999999999996E-6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>31.736999999999998</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.074E-6</v>
+      </c>
+      <c r="G10" s="7">
+        <v>35.734000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5.0040000000000002E-5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7.46</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="17">
+        <v>9.09E-8</v>
+      </c>
+      <c r="G11" s="7">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="17">
+        <v>3.413E-4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22.975000000000001</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="17">
+        <v>6.3499999999999998E-10</v>
+      </c>
+      <c r="G12" s="7">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2.29E-8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="17">
+        <v>3.4520000000000002E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="17">
+        <v>5.4599999999999999E-5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3.4520000000000002E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11.05</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="17">
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>7.2530000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="17">
+        <v>4.1399999999999997E-7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11.95</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="17">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3.6680000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="17">
+        <v>9.0099999999999999E-10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="17">
+        <v>3.49E-6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="17">
+        <v>3.51E-11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>24.39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1.3509999999999999E-5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>30.193000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="17">
+        <v>2.92E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1.3899999999999999E-13</v>
+      </c>
+      <c r="G19" s="7">
+        <v>40.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="17">
+        <v>8.7900000000000001E-11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22.91</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1.1899999999999999E-7</v>
+      </c>
+      <c r="G20" s="7">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1.5099999999999999E-7</v>
+      </c>
+      <c r="D21" s="7">
+        <v>13.03</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="17">
+        <v>2.117E-4</v>
+      </c>
+      <c r="G21" s="7">
+        <v>24.056999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2.8569999999999999E-6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>33.603000000000002</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1.855E-6</v>
+      </c>
+      <c r="G22" s="7">
+        <v>34.543999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="17">
+        <v>2.4660000000000002E-6</v>
+      </c>
+      <c r="D23" s="7">
+        <v>33.923000000000002</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1.6530000000000001E-6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>34.795999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="17">
+        <v>5.4399999999999996E-6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>32.192</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2.137E-5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="18">
+        <v>8.3500000000000005E-7</v>
+      </c>
+      <c r="D25" s="16">
+        <v>11.23</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3.48E-3</v>
+      </c>
+      <c r="G25" s="16">
+        <v>4.3520000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+    <sortCondition ref="A1:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/MeansTables.xlsx
+++ b/Tables/MeansTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E371750A-8D33-4F46-99CC-F45FCF74D54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2DE864-DCF6-D34C-B178-653B23915BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="820" windowWidth="27640" windowHeight="16040" activeTab="1" xr2:uid="{265FA2DD-E230-E644-AC9A-50A4904775DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="159">
   <si>
     <t>Stream</t>
   </si>
@@ -378,12 +378,6 @@
     <t>Taxa Metric</t>
   </si>
   <si>
-    <t>X^2/F.spring</t>
-  </si>
-  <si>
-    <t>X^2/F.fall</t>
-  </si>
-  <si>
     <t>Kruskal-Wallis</t>
   </si>
   <si>
@@ -511,6 +505,80 @@
   </si>
   <si>
     <t>VASCI</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or F</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -520,7 +588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,6 +611,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -558,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -571,68 +652,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -700,60 +720,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,10 +1159,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF11EB8-A1A6-BE48-B5CB-9E95BDEE6756}">
   <dimension ref="A1:AH92"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="K71" sqref="K71"/>
+      <selection pane="topRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,25 +1258,25 @@
       <c r="AA2" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AF2" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2278,7 +2366,7 @@
       <c r="AB18" t="s">
         <v>2</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AC18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AD18" t="s">
@@ -2290,11 +2378,11 @@
       <c r="AF18" t="s">
         <v>17</v>
       </c>
-      <c r="AG18" s="6" t="s">
+      <c r="AG18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AH18" s="6" t="s">
-        <v>117</v>
+      <c r="AH18" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -2394,7 +2482,7 @@
       <c r="AF19" t="s">
         <v>87</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AG19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AH19" t="s">
@@ -3508,7 +3596,7 @@
         <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N32" t="s">
         <v>59</v>
@@ -4766,7 +4854,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
         <v>104</v>
@@ -4795,172 +4883,172 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4973,396 +5061,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2572E8-AAFD-684B-9430-9CFC562C06AC}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="2:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.155</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="D4" s="14">
+        <v>1.934E-6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>34.453000000000003</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.224E-5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>30.411000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1.5099999999999999E-7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>13.03</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.117E-4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>24.056999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.4660000000000002E-6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>33.923000000000002</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1.6530000000000001E-6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>34.795999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5.4399999999999996E-6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>32.192</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2.137E-5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.155</v>
-      </c>
-      <c r="G2" s="15">
-        <v>1.7230000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="14">
+        <v>8.3500000000000005E-7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>11.23</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3.48E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.3520000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1.4249999999999999E-6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>35.119</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="H9" s="6">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6.1600000000000007E-5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7.2949999999999999</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="14">
+        <v>7.6160000000000003E-5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6.6969999999999996E-6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>31.736999999999998</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.074E-6</v>
+      </c>
+      <c r="H11" s="6">
+        <v>35.734000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>11.05</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="14">
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7.2530000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4.1399999999999997E-7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="14">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3.6680000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="13">
+        <v>4.0499999999999999E-8</v>
+      </c>
+      <c r="E14" s="13">
+        <v>14.52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2.836E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>12.516</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="14">
+        <v>8.7900000000000001E-11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>22.91</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1.1899999999999999E-7</v>
+      </c>
+      <c r="H15" s="6">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2.8569999999999999E-6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>33.603000000000002</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1.855E-6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>34.543999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="7">
-        <v>1.934E-6</v>
-      </c>
-      <c r="D3" s="9">
-        <v>34.453000000000003</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1.224E-5</v>
-      </c>
-      <c r="G3" s="15">
-        <v>30.411000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1.5099999999999999E-7</v>
-      </c>
-      <c r="D4" s="9">
-        <v>13.03</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2.117E-4</v>
-      </c>
-      <c r="G4" s="15">
-        <v>24.056999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2.4660000000000002E-6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>33.923000000000002</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.6530000000000001E-6</v>
-      </c>
-      <c r="G5" s="15">
-        <v>34.795999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5.4399999999999996E-6</v>
-      </c>
-      <c r="D6" s="9">
-        <v>32.192</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2.137E-5</v>
-      </c>
-      <c r="G6" s="15">
-        <v>29.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="7">
-        <v>8.3500000000000005E-7</v>
-      </c>
-      <c r="D7" s="9">
-        <v>11.23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3.48E-3</v>
-      </c>
-      <c r="G7" s="15">
-        <v>4.3520000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.4249999999999999E-6</v>
-      </c>
-      <c r="D8" s="9">
-        <v>35.119</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="G8" s="15">
-        <v>13.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6.1600000000000007E-5</v>
-      </c>
-      <c r="D9" s="9">
-        <v>7.2949999999999999</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="7">
-        <v>7.6160000000000003E-5</v>
-      </c>
-      <c r="G9" s="9">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="7">
-        <v>6.6969999999999996E-6</v>
-      </c>
-      <c r="D10" s="9">
-        <v>31.736999999999998</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.074E-6</v>
-      </c>
-      <c r="G10" s="15">
-        <v>35.734000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D11" s="9">
-        <v>11.05</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="7">
-        <v>9.4400000000000004E-5</v>
-      </c>
-      <c r="G11" s="15">
-        <v>7.2530000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4.1399999999999997E-7</v>
-      </c>
-      <c r="D12" s="9">
-        <v>11.95</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8.9700000000000005E-3</v>
-      </c>
-      <c r="G12" s="15">
-        <v>3.6680000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4.0499999999999999E-8</v>
-      </c>
-      <c r="D13" s="6">
-        <v>14.52</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="6">
-        <v>2.836E-2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>12.516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8.7900000000000001E-11</v>
-      </c>
-      <c r="D14" s="9">
-        <v>22.91</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1.1899999999999999E-7</v>
-      </c>
-      <c r="G14" s="15">
-        <v>14.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.8569999999999999E-6</v>
-      </c>
-      <c r="D15" s="9">
-        <v>33.603000000000002</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1.855E-6</v>
-      </c>
-      <c r="G15" s="15">
-        <v>34.543999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="D17" s="9">
         <v>1.6329999999999999E-3</v>
       </c>
-      <c r="D16" s="12">
+      <c r="E17" s="10">
         <v>19.379000000000001</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="F17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="9">
         <v>5.9000000000000003E-4</v>
       </c>
-      <c r="G16" s="16">
+      <c r="H17" s="11">
         <v>5.7140000000000004</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-    <sortCondition ref="A2:A16"/>
-  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>